--- a/metrics/R2/average time/Retinopatía proliferativa.xlsx
+++ b/metrics/R2/average time/Retinopatía proliferativa.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9387136228733661</v>
+        <v>0.9245220079772162</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9387136228733661</v>
+        <v>0.9245220079772162</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9387136228733661</v>
+        <v>0.9245220079772162</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9941926134706534</v>
+        <v>0.9945725367704162</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9944169140506466</v>
+        <v>0.9947275790452857</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9944757551700649</v>
+        <v>0.994810749748008</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9956095007234073</v>
+        <v>0.995789634104864</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9956093491478256</v>
+        <v>0.9957897629832205</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9956093390581503</v>
+        <v>0.9957896804769368</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.962151635987567</v>
+        <v>0.9663428155154096</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9655057756592421</v>
+        <v>0.9676340096044976</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9682829958002764</v>
+        <v>0.9646173493817974</v>
       </c>
     </row>
   </sheetData>
